--- a/datas/注册接口用例.xlsx
+++ b/datas/注册接口用例.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="注册" sheetId="1" r:id="rId1"/>
+    <sheet name="订阅" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>case_id</t>
   </si>
@@ -207,6 +208,86 @@
   </si>
   <si>
     <t>{"email":"#email#","nickname":"#nickname#","password":"hesung1234hesung1234h","agree":True,"encrypt":True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱账号正确-订阅成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/support/product/subscribe?email=#email#&amp;subscribeType=PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/support/product/subscribe?email=abcdef&amp;subscribeType=PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱不合法-订阅失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱没有@符号-订阅失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/support/product/subscribe?email=fpjbqg43817chacuo.net&amp;subscribeType=PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 100026,
+    "msg": "email:email is invalid"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "OK",
+    "data": {
+        "createdBy": "Developer",
+        "updatedBy": "Developer",
+        "subscribeType": "PRODUCT"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/support/product/subscribe?email=qwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuiopqwertyuioqwe@chacuo.com&amp;subscribeType=PRODUCT</t>
+  </si>
+  <si>
+    <t>/api/support/product/subscribe?email=f@.com&amp;subscribeType=PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱小于7个字符-订阅失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱超长513字符-订阅失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 100026
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 100026
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 100026
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -856,7 +937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -875,9 +956,6 @@
       <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -892,4 +970,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55.75" customWidth="1"/>
+    <col min="6" max="6" width="47.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="104.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>